--- a/StockAccounting_ERP1/FileInput/Data Engine.xlsx
+++ b/StockAccounting_ERP1/FileInput/Data Engine.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="15300" windowHeight="6615"/>
   </bookViews>
   <sheets>
     <sheet name="MasterTestCases" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,8 @@
     <sheet name="Suppliers" sheetId="5" r:id="rId5"/>
     <sheet name="Customers" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1:L20"/>
 </workbook>
 </file>
 
